--- a/Lung_cells_data.xlsx
+++ b/Lung_cells_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96C349-7867-4B1A-9F86-AA98DB611380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_number" sheetId="1" r:id="rId1"/>
@@ -15,10 +16,16 @@
     <sheet name="Cell_cycle_times" sheetId="6" r:id="rId6"/>
     <sheet name="Mice_turnover" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -396,9 +403,6 @@
     <t>Seyed-Razavi et al., 2013</t>
   </si>
   <si>
-    <t>In the source - Mesenchymal stromal cell.  We identified them as interstitial cells. Were labeled with BrdU+. No SD was given</t>
-  </si>
-  <si>
     <t>endothelial cells</t>
   </si>
   <si>
@@ -409,19 +413,22 @@
   </si>
   <si>
     <t>lung interstitial cells</t>
+  </si>
+  <si>
+    <t>In the source - Mesenchymal stromal cell.  We identified them as interstitial cells. Were labeled with BrdU+. No SD was given we take a factor of ~2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0E+00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,32 +1199,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה9" displayName="טבלה9" ref="M1:N8" totalsRowShown="0" tableBorderDxfId="26">
-  <autoFilter ref="M1:N8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="טבלה9" displayName="טבלה9" ref="M1:N8" totalsRowShown="0" tableBorderDxfId="26">
+  <autoFilter ref="M1:N8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="#">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#">
       <calculatedColumnFormula>"["  &amp; VALUE(MID(M1,2,LEN(M1)-2))+1 &amp; "]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="source"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:H8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:H8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:H8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="cells" dataDxfId="23"/>
-    <tableColumn id="11" name="cell type" dataDxfId="22"/>
-    <tableColumn id="3" name="number of cell (Crapo et al., 1982)" dataDxfId="21"/>
-    <tableColumn id="9" name="SEM of cells (Crapo et al., 1982)" dataDxfId="20"/>
-    <tableColumn id="5" name="number of cell (Stone et al., 1992)" dataDxfId="19"/>
-    <tableColumn id="8" name="SEM of cells (Stone et al., 1992)" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="cells" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="cell type" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="number of cell (Crapo et al., 1982)" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="SEM of cells (Crapo et al., 1982)" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="number of cell (Stone et al., 1992)" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="SEM of cells (Stone et al., 1992)" dataDxfId="18">
       <calculatedColumnFormula>2* 10^6 *9000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="number of cell (Mercer et al., 1994)" dataDxfId="17"/>
-    <tableColumn id="10" name="SEM of cells (Mercer et al., 1994)" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="number of cell (Mercer et al., 1994)" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SEM of cells (Mercer et al., 1994)" dataDxfId="16">
       <calculatedColumnFormula>23* 10^9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1226,36 +1233,36 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:H8" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:H8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table24" displayName="Table24" ref="A1:H8" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:H8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="cells" dataDxfId="13"/>
-    <tableColumn id="11" name="cell type" dataDxfId="12"/>
-    <tableColumn id="3" name="volume [fl] (Crapo et al., 1982)" dataDxfId="11"/>
-    <tableColumn id="9" name="SEM of volume [fl] (Crapo et al., 1982)" dataDxfId="10"/>
-    <tableColumn id="5" name="volume [fl] (Stone et al., 1992)" dataDxfId="9"/>
-    <tableColumn id="8" name="SEM of volume [fl] (Stone et al., 1992)" dataDxfId="8"/>
-    <tableColumn id="6" name="volume [fl] (Mercer et al., 1994)" dataDxfId="7"/>
-    <tableColumn id="10" name="SEM of volume [fl] (Mercer et al., 1994)" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="cells" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="cell type" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="volume [fl] (Crapo et al., 1982)" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="SEM of volume [fl] (Crapo et al., 1982)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="volume [fl] (Stone et al., 1992)" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="SEM of volume [fl] (Stone et al., 1992)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="volume [fl] (Mercer et al., 1994)" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="SEM of volume [fl] (Mercer et al., 1994)" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F12" totalsRowCount="1">
-  <autoFilter ref="A1:F11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:F12" totalsRowCount="1">
+  <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="airway size" totalsRowLabel="average"/>
-    <tableColumn id="2" name="cell  subtype"/>
-    <tableColumn id="3" name="volume [fl]" totalsRowFunction="custom" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="airway size" totalsRowLabel="average"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="cell  subtype"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="volume [fl]" totalsRowFunction="custom" totalsRowDxfId="5">
       <totalsRowFormula>SUMPRODUCT(Table5[volume '[fl']],Table5[%])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="SD [fl]" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="SD [fl]" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3">
       <totalsRowFormula>SUMPRODUCT(Table5[SD '[fl']],Table5[%])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="number"/>
-    <tableColumn id="6" name="%" totalsRowDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="number"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="%" totalsRowDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>Table5[[#This Row],[number]]/SUM(Table5[number])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1264,14 +1271,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="bronci_epi_vol_summary" displayName="bronci_epi_vol_summary" ref="A14:C16" totalsRowShown="0">
-  <autoFilter ref="A14:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="bronci_epi_vol_summary" displayName="bronci_epi_vol_summary" ref="A14:C16" totalsRowShown="0">
+  <autoFilter ref="A14:C16" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="airway"/>
-    <tableColumn id="2" name="volume [fl]" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="airway"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="volume [fl]" dataDxfId="1">
       <calculatedColumnFormula>SUMPRODUCT(C2:C9,F2:F9)/SUM(F2:F9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="SD [fl]" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="SD [fl]" dataDxfId="0">
       <calculatedColumnFormula>SUMPRODUCT(D2:D9,F2:F9)/SUM(F2:F9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1280,63 +1287,63 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="A1:H10" totalsRowShown="0">
-  <autoFilter ref="A1:H10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table25" displayName="Table25" ref="A1:H10" totalsRowShown="0">
+  <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="parameter"/>
-    <tableColumn id="2" name="value"/>
-    <tableColumn id="6" name="units"/>
-    <tableColumn id="3" name="SD"/>
-    <tableColumn id="7" name="N"/>
-    <tableColumn id="8" name="SEM"/>
-    <tableColumn id="5" name="comment"/>
-    <tableColumn id="4" name="source"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="parameter"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="value"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="units"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="SD"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="N"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="SEM"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="comment"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table258" displayName="Table258" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table258" displayName="Table258" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="source"/>
-    <tableColumn id="2" name="bronchi epithel LI"/>
-    <tableColumn id="6" name="units"/>
-    <tableColumn id="3" name="SD"/>
-    <tableColumn id="7" name="N"/>
-    <tableColumn id="8" name="SEM"/>
-    <tableColumn id="5" name="comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="source"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="bronchi epithel LI"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="units"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SD"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="N"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="SEM"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:G15" totalsRowShown="0">
-  <autoFilter ref="A1:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A1:G15" totalsRowShown="0">
+  <autoFilter ref="A1:G15" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="cell type"/>
-    <tableColumn id="2" name="in vivo/vitro"/>
-    <tableColumn id="3" name="TC"/>
-    <tableColumn id="5" name="TG1"/>
-    <tableColumn id="4" name="TS"/>
-    <tableColumn id="7" name="T(G2+M)"/>
-    <tableColumn id="6" name="source"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="cell type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="in vivo/vitro"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="TC"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="TG1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="TS"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="T(G2+M)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table25810" displayName="Table25810" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table25810" displayName="Table25810" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="cell"/>
-    <tableColumn id="2" name="lifespan [d]"/>
-    <tableColumn id="3" name="SD"/>
-    <tableColumn id="5" name="comment"/>
-    <tableColumn id="9" name="source"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="cell"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="lifespan [d]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="SD"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="comment"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1604,25 +1611,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1">
+    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1686,7 +1693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -1719,12 +1726,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="9">
         <f>2*68* 10^9</f>
@@ -1752,12 +1759,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="9">
         <f>2*84* 10^9</f>
@@ -1785,12 +1792,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="9">
         <f>2*23* 10^9</f>
@@ -1818,12 +1825,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1844,12 +1851,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1870,69 +1877,69 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="20" spans="9:19">
+    <row r="20" spans="9:19" x14ac:dyDescent="0.35">
       <c r="P20">
         <v>1.38</v>
       </c>
     </row>
-    <row r="22" spans="9:19">
+    <row r="22" spans="9:19" x14ac:dyDescent="0.35">
       <c r="P22">
         <f>100*1.38%*32</f>
         <v>44.16</v>
       </c>
     </row>
-    <row r="24" spans="9:19">
+    <row r="24" spans="9:19" x14ac:dyDescent="0.35">
       <c r="P24">
         <v>2318</v>
       </c>
     </row>
-    <row r="25" spans="9:19">
+    <row r="25" spans="9:19" x14ac:dyDescent="0.35">
       <c r="P25">
         <f>P24/P22</f>
         <v>52.490942028985508</v>
       </c>
     </row>
-    <row r="26" spans="9:19">
+    <row r="26" spans="9:19" x14ac:dyDescent="0.35">
       <c r="I26" s="26">
         <v>0.02</v>
       </c>
@@ -1941,7 +1948,7 @@
         <v>1.9050905953408109E-2</v>
       </c>
     </row>
-    <row r="27" spans="9:19">
+    <row r="27" spans="9:19" x14ac:dyDescent="0.35">
       <c r="I27">
         <v>32</v>
       </c>
@@ -1950,7 +1957,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="29" spans="9:19">
+    <row r="29" spans="9:19" x14ac:dyDescent="0.35">
       <c r="J29">
         <f>1/J27</f>
         <v>0.75</v>
@@ -1959,12 +1966,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="9:19">
+    <row r="30" spans="9:19" x14ac:dyDescent="0.35">
       <c r="Q30">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="9:19">
+    <row r="31" spans="9:19" x14ac:dyDescent="0.35">
       <c r="K31">
         <f>I26/J27</f>
         <v>1.5000000000000001E-2</v>
@@ -1976,7 +1983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="9:19">
+    <row r="32" spans="9:19" x14ac:dyDescent="0.35">
       <c r="K32">
         <f>1/K31</f>
         <v>66.666666666666657</v>
@@ -1986,7 +1993,7 @@
         <v>2318.840579710145</v>
       </c>
     </row>
-    <row r="33" spans="18:18">
+    <row r="33" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R33">
         <f>R32/24</f>
         <v>96.618357487922708</v>
@@ -2002,21 +2009,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="44.25" customHeight="1">
+    <row r="1" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2064,7 +2071,7 @@
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -2086,12 +2093,12 @@
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="28">
         <v>630</v>
@@ -2108,12 +2115,12 @@
       <c r="G4" s="28"/>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="28">
         <v>640</v>
@@ -2130,12 +2137,12 @@
       <c r="G5" s="28"/>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="28">
         <v>2500</v>
@@ -2152,12 +2159,12 @@
       <c r="G6" s="28"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -2172,12 +2179,12 @@
         <v>142.52984212553193</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -2201,24 +2208,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
     <col min="13" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2241,7 +2248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2263,7 +2270,7 @@
         <v>0.13883847549909256</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2285,7 +2292,7 @@
         <v>0.13109497882637627</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2307,7 +2314,7 @@
         <v>5.2752571082879611E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2329,7 +2336,7 @@
         <v>1.3974591651542649E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2351,7 +2358,7 @@
         <v>0.13883847549909256</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2373,7 +2380,7 @@
         <v>0.13109497882637627</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2395,7 +2402,7 @@
         <v>5.2752571082879611E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2417,7 +2424,7 @@
         <v>1.3974591651542649E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2438,7 +2445,7 @@
         <v>0.18753781004234724</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2459,7 +2466,7 @@
         <v>0.13914095583787053</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2473,7 +2480,7 @@
       </c>
       <c r="F12" s="26"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2497,7 +2504,7 @@
         <v>142.52984212553193</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2520,21 +2527,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2563,7 +2570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2590,7 +2597,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -2617,7 +2624,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2644,7 +2651,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -2668,7 +2675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2698,7 +2705,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -2718,7 +2725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2739,7 +2746,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -2759,7 +2766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -2776,15 +2783,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F15" s="47"/>
       <c r="G15" s="48"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C20" s="26"/>
       <c r="E20" s="26"/>
     </row>
@@ -2798,21 +2805,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="73.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="7" max="7" width="73.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2838,7 +2845,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2865,7 +2872,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -2888,7 +2895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -2915,19 +2922,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="26"/>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="26"/>
       <c r="F8" s="26"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="34"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="26"/>
     </row>
   </sheetData>
@@ -2939,19 +2946,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2980,7 +2987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -3006,7 +3013,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -3032,7 +3039,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -3058,7 +3065,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3084,7 +3091,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -3107,7 +3114,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -3130,7 +3137,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -3153,7 +3160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -3176,7 +3183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -3199,7 +3206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -3222,7 +3229,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -3245,7 +3252,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -3273,7 +3280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -3287,7 +3294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F22">
         <v>27.3</v>
       </c>
@@ -3296,7 +3303,7 @@
         <v>32.76</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G23">
         <f>F22/1.2</f>
         <v>22.75</v>
@@ -3311,21 +3318,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -3345,7 +3352,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -3365,18 +3372,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="37">
         <v>44</v>
       </c>
       <c r="C3" s="46">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>122</v>
@@ -3385,7 +3392,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="34"/>
       <c r="C4" s="39"/>
       <c r="J4" t="s">
